--- a/all_info.xlsx
+++ b/all_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>invitation #</t>
   </si>
@@ -55,6 +55,45 @@
     <t>url</t>
   </si>
   <si>
+    <t>60107</t>
+  </si>
+  <si>
+    <t>regular invitation</t>
+  </si>
+  <si>
+    <t>testing person 1</t>
+  </si>
+  <si>
+    <t>טסטינג פרסון 1</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Groom</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>1@1.com</t>
+  </si>
+  <si>
+    <t>avichaidevora.com/invitation/60107</t>
+  </si>
+  <si>
+    <t>testing person 2</t>
+  </si>
+  <si>
+    <t>טסטינג פרסון 2</t>
+  </si>
+  <si>
+    <t>2@2.com</t>
+  </si>
+  <si>
     <t>42652</t>
   </si>
   <si>
@@ -67,10 +106,10 @@
     <t>משפחת מוסקוביץ</t>
   </si>
   <si>
-    <t>Maybe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Allergies</t>
   </si>
   <si>
     <t>Bride</t>
@@ -83,39 +122,6 @@
   </si>
   <si>
     <t>avichaidevora.com/invitation/42652</t>
-  </si>
-  <si>
-    <t>60107</t>
-  </si>
-  <si>
-    <t>regular invitation</t>
-  </si>
-  <si>
-    <t>testing person 1</t>
-  </si>
-  <si>
-    <t>טסטינג פרסון 1</t>
-  </si>
-  <si>
-    <t>Groom</t>
-  </si>
-  <si>
-    <t>Work</t>
-  </si>
-  <si>
-    <t>1@1.com</t>
-  </si>
-  <si>
-    <t>avichaidevora.com/invitation/60107</t>
-  </si>
-  <si>
-    <t>testing person 2</t>
-  </si>
-  <si>
-    <t>טסטינג פרסון 2</t>
-  </si>
-  <si>
-    <t>2@2.com</t>
   </si>
   <si>
     <t>20349</t>
@@ -579,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -603,16 +609,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -628,69 +634,71 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
@@ -706,30 +714,30 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -745,14 +753,14 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/all_info.xlsx
+++ b/all_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>invitation #</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Maybe</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>2015-04-19 17:07</t>
   </si>
   <si>
     <t>Groom</t>
@@ -109,7 +109,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Allergies</t>
+    <t>2015-04-19 21:41</t>
   </si>
   <si>
     <t>Bride</t>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>חבר מהצבא</t>
+  </si>
+  <si>
+    <t>2015-04-19 19:01</t>
+  </si>
+  <si>
+    <t>Vegan</t>
   </si>
   <si>
     <t>Army</t>
@@ -666,14 +672,12 @@
         <v>5</v>
       </c>
       <c r="G4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
@@ -701,29 +705,31 @@
         <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -734,10 +740,10 @@
         <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -746,21 +752,21 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/all_info.xlsx
+++ b/all_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>invitation #</t>
   </si>
@@ -67,91 +67,118 @@
     <t>טסטינג פרסון 1</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2015-04-23 10:11</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>Groom</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>1@1.com</t>
+  </si>
+  <si>
+    <t>avichaidevora.com/invitation/60107</t>
+  </si>
+  <si>
+    <t>testing person 2</t>
+  </si>
+  <si>
+    <t>טסטינג פרסון 2</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>GlutenFree</t>
+  </si>
+  <si>
+    <t>2@2.com</t>
+  </si>
+  <si>
+    <t>42652</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>the Moskovitzes</t>
+  </si>
+  <si>
+    <t>משפחת מוסקוביץ</t>
+  </si>
+  <si>
+    <t>2015-04-23 10:08</t>
+  </si>
+  <si>
+    <t>Bride</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>reyley1014@gmail.com</t>
+  </si>
+  <si>
+    <t>avichaidevora.com/invitation/42652</t>
+  </si>
+  <si>
+    <t>20349</t>
+  </si>
+  <si>
+    <t>with guest</t>
+  </si>
+  <si>
+    <t>army friend</t>
+  </si>
+  <si>
+    <t>חבר מהצבא</t>
+  </si>
+  <si>
+    <t>2015-04-23 10:19</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>avichaidevora.com/invitation/20349</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>אורח/ת</t>
+  </si>
+  <si>
     <t>Maybe</t>
   </si>
   <si>
-    <t>2015-04-19 17:07</t>
-  </si>
-  <si>
-    <t>Groom</t>
-  </si>
-  <si>
-    <t>Work</t>
-  </si>
-  <si>
-    <t>1@1.com</t>
-  </si>
-  <si>
-    <t>avichaidevora.com/invitation/60107</t>
-  </si>
-  <si>
-    <t>testing person 2</t>
-  </si>
-  <si>
-    <t>טסטינג פרסון 2</t>
-  </si>
-  <si>
-    <t>2@2.com</t>
-  </si>
-  <si>
-    <t>42652</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>the Moskovitzes</t>
-  </si>
-  <si>
-    <t>משפחת מוסקוביץ</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>2015-04-19 21:41</t>
-  </si>
-  <si>
-    <t>Bride</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>reyley1014@gmail.com</t>
-  </si>
-  <si>
-    <t>avichaidevora.com/invitation/42652</t>
-  </si>
-  <si>
-    <t>20349</t>
-  </si>
-  <si>
-    <t>with guest</t>
-  </si>
-  <si>
-    <t>army friend</t>
-  </si>
-  <si>
-    <t>חבר מהצבא</t>
-  </si>
-  <si>
-    <t>2015-04-19 19:01</t>
-  </si>
-  <si>
-    <t>Vegan</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>avichaidevora.com/invitation/20349</t>
-  </si>
-  <si>
-    <t>Guest</t>
-  </si>
-  <si>
-    <t>אורח/ת</t>
+    <t>88850</t>
+  </si>
+  <si>
+    <t>sththrtger</t>
+  </si>
+  <si>
+    <t>srhsth</t>
+  </si>
+  <si>
+    <t>httshtrh</t>
+  </si>
+  <si>
+    <t>2015-04-21 16:57</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>avichaidevora.com/invitation/88850</t>
   </si>
 </sst>
 </file>
@@ -508,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,11 +544,11 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" customWidth="1"/>
@@ -599,18 +626,20 @@
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -621,52 +650,54 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="J3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
@@ -675,78 +706,78 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -755,18 +786,55 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/all_info.xlsx
+++ b/all_info.xlsx
@@ -115,7 +115,7 @@
     <t>משפחת מוסקוביץ</t>
   </si>
   <si>
-    <t>2015-04-23 10:08</t>
+    <t>2015-04-23 12:45</t>
   </si>
   <si>
     <t>Bride</t>
@@ -142,7 +142,7 @@
     <t>חבר מהצבא</t>
   </si>
   <si>
-    <t>2015-04-23 10:19</t>
+    <t>2015-04-23 12:43</t>
   </si>
   <si>
     <t>Army</t>

--- a/all_info.xlsx
+++ b/all_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>invitation #</t>
   </si>
@@ -157,19 +157,22 @@
     <t>אורח/ת</t>
   </si>
   <si>
+    <t>Vegetarian</t>
+  </si>
+  <si>
+    <t>88850</t>
+  </si>
+  <si>
+    <t>sththrtger</t>
+  </si>
+  <si>
+    <t>srhsth</t>
+  </si>
+  <si>
+    <t>httshtrh</t>
+  </si>
+  <si>
     <t>Maybe</t>
-  </si>
-  <si>
-    <t>88850</t>
-  </si>
-  <si>
-    <t>sththrtger</t>
-  </si>
-  <si>
-    <t>srhsth</t>
-  </si>
-  <si>
-    <t>httshtrh</t>
   </si>
   <si>
     <t>2015-04-21 16:57</t>
@@ -777,7 +780,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -788,7 +791,9 @@
       <c r="H6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="J6" s="2" t="s">
         <v>20</v>
       </c>
@@ -814,7 +819,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -823,18 +828,18 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/all_info.xlsx
+++ b/all_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>invitation #</t>
   </si>
@@ -22,10 +22,13 @@
     <t>invitation name</t>
   </si>
   <si>
-    <t>guest english name</t>
-  </si>
-  <si>
-    <t>guest hebrew name</t>
+    <t>English name</t>
+  </si>
+  <si>
+    <t>Hebrew name</t>
+  </si>
+  <si>
+    <t>Language</t>
   </si>
   <si>
     <t>RSVP</t>
@@ -55,6 +58,69 @@
     <t>url</t>
   </si>
   <si>
+    <t>42652</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>the Moskovitzes</t>
+  </si>
+  <si>
+    <t>משפחת מוסקוביץ</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>2015-04-26 18:24</t>
+  </si>
+  <si>
+    <t>Bride</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>reyley1014@gmail.com</t>
+  </si>
+  <si>
+    <t>avichaidevora.com/invitation/42652</t>
+  </si>
+  <si>
+    <t>other people</t>
+  </si>
+  <si>
+    <t>אנשים אחרים</t>
+  </si>
+  <si>
+    <t>viruses.live@gmail.com</t>
+  </si>
+  <si>
+    <t>1936</t>
+  </si>
+  <si>
+    <t>family 2</t>
+  </si>
+  <si>
+    <t>the Blanesses</t>
+  </si>
+  <si>
+    <t>משפחת בלה</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>avichaidevora.com/invitation/1936</t>
+  </si>
+  <si>
     <t>60107</t>
   </si>
   <si>
@@ -67,15 +133,6 @@
     <t>טסטינג פרסון 1</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>2015-04-23 10:11</t>
-  </si>
-  <si>
-    <t>Vegan</t>
-  </si>
-  <si>
     <t>Groom</t>
   </si>
   <si>
@@ -94,40 +151,22 @@
     <t>טסטינג פרסון 2</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>GlutenFree</t>
-  </si>
-  <si>
     <t>2@2.com</t>
   </si>
   <si>
-    <t>42652</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>the Moskovitzes</t>
-  </si>
-  <si>
-    <t>משפחת מוסקוביץ</t>
-  </si>
-  <si>
-    <t>2015-04-23 12:45</t>
-  </si>
-  <si>
-    <t>Bride</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>reyley1014@gmail.com</t>
-  </si>
-  <si>
-    <t>avichaidevora.com/invitation/42652</t>
+    <t>88850</t>
+  </si>
+  <si>
+    <t>sththrtger</t>
+  </si>
+  <si>
+    <t>srhsth</t>
+  </si>
+  <si>
+    <t>httshtrh</t>
+  </si>
+  <si>
+    <t>avichaidevora.com/invitation/88850</t>
   </si>
   <si>
     <t>20349</t>
@@ -142,7 +181,7 @@
     <t>חבר מהצבא</t>
   </si>
   <si>
-    <t>2015-04-23 12:43</t>
+    <t>Hebrew</t>
   </si>
   <si>
     <t>Army</t>
@@ -155,33 +194,6 @@
   </si>
   <si>
     <t>אורח/ת</t>
-  </si>
-  <si>
-    <t>Vegetarian</t>
-  </si>
-  <si>
-    <t>88850</t>
-  </si>
-  <si>
-    <t>sththrtger</t>
-  </si>
-  <si>
-    <t>srhsth</t>
-  </si>
-  <si>
-    <t>httshtrh</t>
-  </si>
-  <si>
-    <t>Maybe</t>
-  </si>
-  <si>
-    <t>2015-04-21 16:57</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>avichaidevora.com/invitation/88850</t>
   </si>
 </sst>
 </file>
@@ -538,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -551,7 +563,7 @@
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" customWidth="1"/>
@@ -563,7 +575,7 @@
     <col min="17" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,38 +615,39 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
@@ -644,202 +657,296 @@
       <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>23</v>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="2" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
-        <v>44</v>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="2">
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/all_info.xlsx
+++ b/all_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="90">
   <si>
     <t>invitation #</t>
   </si>
@@ -82,168 +82,208 @@
     <t>Both</t>
   </si>
   <si>
-    <t>2015-04-06 09:10</t>
+    <t>2015-04-30 18:11</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>nut allergies</t>
-  </si>
-  <si>
-    <t>be'er sheva</t>
-  </si>
-  <si>
     <t>person1@person.com</t>
   </si>
   <si>
     <t>אורח\ת</t>
   </si>
   <si>
+    <t>5185</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>רחל אילן</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>reyley1014@gmail.com</t>
+  </si>
+  <si>
+    <t>41666</t>
+  </si>
+  <si>
+    <t>hebrew</t>
+  </si>
+  <si>
+    <t>איש משפחה</t>
+  </si>
+  <si>
+    <t>אישה משפחה</t>
+  </si>
+  <si>
+    <t>91141</t>
+  </si>
+  <si>
+    <t>lots+guest</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>4226</t>
+  </si>
+  <si>
+    <t>longest invitation name</t>
+  </si>
+  <si>
+    <t>longest invitation name 1</t>
+  </si>
+  <si>
+    <t>Groom</t>
+  </si>
+  <si>
+    <t>Siblings' friends</t>
+  </si>
+  <si>
+    <t>2015-04-30 19:34</t>
+  </si>
+  <si>
+    <t>person@person.com</t>
+  </si>
+  <si>
+    <t>longest invitation name 2</t>
+  </si>
+  <si>
+    <t>asfasf@gmail.com</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>8533</t>
+  </si>
+  <si>
+    <t>english couple</t>
+  </si>
+  <si>
+    <t>Gavi Lazan</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>2015-05-02 20:12</t>
+  </si>
+  <si>
+    <t>Ariela Lazan</t>
+  </si>
+  <si>
+    <t>70593</t>
+  </si>
+  <si>
+    <t>1@1.com</t>
+  </si>
+  <si>
+    <t>85392</t>
+  </si>
+  <si>
+    <t>73123</t>
+  </si>
+  <si>
+    <t>56977</t>
+  </si>
+  <si>
+    <t>81332</t>
+  </si>
+  <si>
+    <t>36411</t>
+  </si>
+  <si>
+    <t>22000</t>
+  </si>
+  <si>
+    <t>8834</t>
+  </si>
+  <si>
+    <t>1383</t>
+  </si>
+  <si>
+    <t>90842</t>
+  </si>
+  <si>
+    <t>38321</t>
+  </si>
+  <si>
+    <t>83934</t>
+  </si>
+  <si>
+    <t>47498</t>
+  </si>
+  <si>
+    <t>37622</t>
+  </si>
+  <si>
+    <t>82783</t>
+  </si>
+  <si>
+    <t>42875</t>
+  </si>
+  <si>
+    <t>meertest</t>
+  </si>
+  <si>
+    <t>meer</t>
+  </si>
+  <si>
+    <t>viruses.live@gmail.com</t>
+  </si>
+  <si>
+    <t>מיר</t>
+  </si>
+  <si>
+    <t>87603</t>
+  </si>
+  <si>
+    <t>meertest2</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>5185</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>2015-04-05 11:55</t>
-  </si>
-  <si>
-    <t>41666</t>
-  </si>
-  <si>
-    <t>erte</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>2015-04-06 09:09</t>
-  </si>
-  <si>
-    <t>help im stuck in a computer</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>i am cow</t>
-  </si>
-  <si>
-    <t>reyley1014@gmail.com</t>
-  </si>
-  <si>
-    <t>0545855253</t>
-  </si>
-  <si>
-    <t>I am still dxgffrgfr</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>yossi</t>
-  </si>
-  <si>
-    <t>0545856588</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>91141</t>
-  </si>
-  <si>
-    <t>lots+guest</t>
-  </si>
-  <si>
-    <t>2015-04-08 12:24</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>eaferagregearg</t>
-  </si>
-  <si>
-    <t>Guest</t>
-  </si>
-  <si>
-    <t>4226</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>FELD</t>
-  </si>
-  <si>
-    <t>Groom</t>
-  </si>
-  <si>
-    <t>Siblings' friends</t>
-  </si>
-  <si>
-    <t>2015-04-06 18:10</t>
-  </si>
-  <si>
-    <t>person@person.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this is a super long message this is a super long message this is a super long message this is a super long message this is a super long message this is a super long message this is a super long message this is a super long message this is a super long message this is a super long message this is a super long message this is a super long message 
-this is a super long message this is a super long message this is a super long message this is a super long message </t>
-  </si>
-  <si>
-    <t>TAMIR</t>
-  </si>
-  <si>
-    <t>asfasf@gmail.com</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>8533</t>
-  </si>
-  <si>
-    <t>person 1 test</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>2015-04-06 18:21</t>
-  </si>
-  <si>
-    <t>text 1
-text 2</t>
-  </si>
-  <si>
-    <t>person 2 test</t>
+    <t>2015-05-02 20:43</t>
+  </si>
+  <si>
+    <t>אורח/ת</t>
   </si>
 </sst>
 </file>
@@ -600,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -707,18 +747,14 @@
       <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -731,13 +767,13 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>21</v>
@@ -750,7 +786,7 @@
         <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -764,19 +800,19 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
@@ -786,7 +822,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>23</v>
@@ -797,25 +833,27 @@
       <c r="N4" s="2">
         <v>0</v>
       </c>
-      <c r="O4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>21</v>
@@ -825,48 +863,38 @@
         <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
       <c r="N5" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>21</v>
@@ -876,54 +904,46 @@
         <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
         <v>0</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>23</v>
@@ -934,29 +954,25 @@
       <c r="N7" s="2">
         <v>0</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>21</v>
@@ -966,7 +982,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>23</v>
@@ -978,38 +994,34 @@
         <v>0</v>
       </c>
       <c r="O8" s="2"/>
-      <c r="P8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>23</v>
@@ -1022,25 +1034,23 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>21</v>
@@ -1050,7 +1060,7 @@
         <v>23</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>23</v>
@@ -1063,35 +1073,35 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>23</v>
@@ -1102,39 +1112,39 @@
       <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>23</v>
@@ -1146,40 +1156,38 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>23</v>
@@ -1190,41 +1198,37 @@
       <c r="N13" s="2">
         <v>0</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>23</v>
@@ -1237,37 +1241,35 @@
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>23</v>
@@ -1280,37 +1282,35 @@
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>23</v>
@@ -1323,37 +1323,35 @@
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>23</v>
@@ -1366,37 +1364,35 @@
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>23</v>
@@ -1409,37 +1405,35 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>23</v>
@@ -1452,37 +1446,35 @@
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>23</v>
@@ -1495,40 +1487,38 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1536,21 +1526,21 @@
       <c r="N21" s="2">
         <v>0</v>
       </c>
-      <c r="O21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>23</v>
@@ -1562,13 +1552,13 @@
         <v>21</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>23</v>
@@ -1581,37 +1571,33 @@
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>23</v>
@@ -1622,11 +1608,747 @@
       <c r="N23" s="2">
         <v>0</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2" t="s">
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/all_info.xlsx
+++ b/all_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>invitation #</t>
   </si>
@@ -58,6 +58,54 @@
     <t>url</t>
   </si>
   <si>
+    <t>60107</t>
+  </si>
+  <si>
+    <t>regular invitation</t>
+  </si>
+  <si>
+    <t>testing person 1</t>
+  </si>
+  <si>
+    <t>טסטינג פרסון 1</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>2015-04-30 17:23</t>
+  </si>
+  <si>
+    <t>GlutenFree</t>
+  </si>
+  <si>
+    <t>Groom</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>1@1.com</t>
+  </si>
+  <si>
+    <t>http://avichaidevora.com/invitation/60107</t>
+  </si>
+  <si>
+    <t>testing person 2</t>
+  </si>
+  <si>
+    <t>טסטינג פרסון 2</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>2@2.com</t>
+  </si>
+  <si>
     <t>42652</t>
   </si>
   <si>
@@ -70,34 +118,73 @@
     <t>משפחת מוסקוביץ</t>
   </si>
   <si>
-    <t>English</t>
+    <t>2015-05-01 06:35</t>
+  </si>
+  <si>
+    <t>Bride</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>http://avichaidevora.com/invitation/42652</t>
+  </si>
+  <si>
+    <t>20349</t>
+  </si>
+  <si>
+    <t>with guest</t>
+  </si>
+  <si>
+    <t>army friend</t>
+  </si>
+  <si>
+    <t>חבר מהצבא</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
   </si>
   <si>
     <t>Maybe</t>
   </si>
   <si>
-    <t>2015-04-26 18:24</t>
-  </si>
-  <si>
-    <t>Bride</t>
-  </si>
-  <si>
-    <t>Family</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Army</t>
   </si>
   <si>
     <t>reyley1014@gmail.com</t>
   </si>
   <si>
-    <t>avichaidevora.com/invitation/42652</t>
-  </si>
-  <si>
-    <t>other people</t>
-  </si>
-  <si>
-    <t>אנשים אחרים</t>
-  </si>
-  <si>
-    <t>viruses.live@gmail.com</t>
+    <t>http://avichaidevora.com/invitation/20349</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>אורח/ת</t>
+  </si>
+  <si>
+    <t>88850</t>
+  </si>
+  <si>
+    <t>sththrtger</t>
+  </si>
+  <si>
+    <t>srhsth</t>
+  </si>
+  <si>
+    <t>httshtrh</t>
+  </si>
+  <si>
+    <t>2015-05-01 06:50</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>http://avichaidevora.com/invitation/88850</t>
   </si>
   <si>
     <t>1936</t>
@@ -112,88 +199,13 @@
     <t>משפחת בלה</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>avichaidevora.com/invitation/1936</t>
-  </si>
-  <si>
-    <t>60107</t>
-  </si>
-  <si>
-    <t>regular invitation</t>
-  </si>
-  <si>
-    <t>testing person 1</t>
-  </si>
-  <si>
-    <t>טסטינג פרסון 1</t>
-  </si>
-  <si>
-    <t>Groom</t>
-  </si>
-  <si>
-    <t>Work</t>
-  </si>
-  <si>
-    <t>1@1.com</t>
-  </si>
-  <si>
-    <t>avichaidevora.com/invitation/60107</t>
-  </si>
-  <si>
-    <t>testing person 2</t>
-  </si>
-  <si>
-    <t>טסטינג פרסון 2</t>
-  </si>
-  <si>
-    <t>2@2.com</t>
-  </si>
-  <si>
-    <t>88850</t>
-  </si>
-  <si>
-    <t>sththrtger</t>
-  </si>
-  <si>
-    <t>srhsth</t>
-  </si>
-  <si>
-    <t>httshtrh</t>
-  </si>
-  <si>
-    <t>avichaidevora.com/invitation/88850</t>
-  </si>
-  <si>
-    <t>20349</t>
-  </si>
-  <si>
-    <t>with guest</t>
-  </si>
-  <si>
-    <t>army friend</t>
-  </si>
-  <si>
-    <t>חבר מהצבא</t>
-  </si>
-  <si>
-    <t>Hebrew</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>avichaidevora.com/invitation/20349</t>
-  </si>
-  <si>
-    <t>Guest</t>
-  </si>
-  <si>
-    <t>אורח/ת</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2015-05-01 06:49</t>
+  </si>
+  <si>
+    <t>http://avichaidevora.com/invitation/1936</t>
   </si>
 </sst>
 </file>
@@ -550,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,26 +651,28 @@
         <v>19</v>
       </c>
       <c r="G2" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -669,10 +683,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -681,40 +695,42 @@
         <v>19</v>
       </c>
       <c r="G3" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -723,42 +739,44 @@
         <v>19</v>
       </c>
       <c r="G4" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -767,40 +785,40 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -809,37 +827,35 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
@@ -848,108 +864,73 @@
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="N4" r:id="rId3"/>
+    <hyperlink ref="N5" r:id="rId4"/>
+    <hyperlink ref="N6" r:id="rId5"/>
+    <hyperlink ref="N7" r:id="rId6"/>
+    <hyperlink ref="N8" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>